--- a/AAA - Revision Asignacion Real.xlsx
+++ b/AAA - Revision Asignacion Real.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,66 @@
           <t>Carga Asignada</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mañanas</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Tardes</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Viernes Tarde</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Noches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fines de Semana</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Sábados</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Domingos</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Mañanas/mes</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Tardes/mes</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ViernesTarde/mes</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Noches/mes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>FindeSemana/mes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +522,42 @@
       <c r="C2" t="n">
         <v>3.533240353324033</v>
       </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +571,42 @@
       <c r="C3" t="n">
         <v>4.718735471873544</v>
       </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +620,42 @@
       <c r="C4" t="n">
         <v>4.649000464900044</v>
       </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +669,42 @@
       <c r="C5" t="n">
         <v>4.951185495118547</v>
       </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +718,42 @@
       <c r="C6" t="n">
         <v>4.951185495118547</v>
       </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -527,6 +767,42 @@
       <c r="C7" t="n">
         <v>5.741515574151554</v>
       </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -540,6 +816,42 @@
       <c r="C8" t="n">
         <v>5.741515574151554</v>
       </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -553,6 +865,42 @@
       <c r="C9" t="n">
         <v>5.462575546257551</v>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -566,6 +914,42 @@
       <c r="C10" t="n">
         <v>5.927475592747555</v>
       </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -579,6 +963,42 @@
       <c r="C11" t="n">
         <v>6.927010692701066</v>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -592,6 +1012,42 @@
       <c r="C12" t="n">
         <v>6.415620641562062</v>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -605,6 +1061,42 @@
       <c r="C13" t="n">
         <v>6.415620641562062</v>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -618,6 +1110,42 @@
       <c r="C14" t="n">
         <v>7.391910739191071</v>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -631,6 +1159,42 @@
       <c r="C15" t="n">
         <v>8.856345885634587</v>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="n">
+        <v>17</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -644,6 +1208,42 @@
       <c r="C16" t="n">
         <v>10.5532310553231</v>
       </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.333333333333333</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -656,6 +1256,42 @@
       </c>
       <c r="C17" t="n">
         <v>7.763830776383076</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.7777777777777777</v>
       </c>
     </row>
   </sheetData>
